--- a/dataset/2nd_data/preprocessing/env_detail.xlsx
+++ b/dataset/2nd_data/preprocessing/env_detail.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR137"/>
+  <dimension ref="A1:BQ137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,337 +452,332 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>dew point (Td)</t>
+          <t>이슬점(Td)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>증산(HD)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>atmospheric pressure</t>
+          <t>대기압</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>pws</t>
+          <t>PWS(?)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>W (moisture content)</t>
+          <t>수분량</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>h (enthalpy)</t>
+          <t>엔탈피</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>v (specific volume)</t>
+          <t>비부피</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>rho (density)</t>
+          <t>밀도</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>pw (Partial pressure) water vapor</t>
+          <t>PW(?)수증기</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Absolute Humidity (AH)</t>
+          <t>절대습도</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>absoluteAH</t>
+          <t>절대AH(?)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>실내온도_std</t>
+          <t>실내온도표준편차</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>실내습도_std</t>
+          <t>실내습도표준편차</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>dew point (Td)_std</t>
+          <t>이슬점(Td)표준편차</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>HD_std</t>
+          <t>증산(HD)표준편차</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>atmospheric pressure_std</t>
+          <t>대기압표준편차</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>pws_std</t>
+          <t>PWS(?)표준편차</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>W (moisture content)_std</t>
+          <t>수분량표준편차</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>h (enthalpy)_std</t>
+          <t>엔탈피표준편차</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>v (specific volume)_std</t>
+          <t>비부피표준편차</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>rho (density)_std</t>
+          <t>밀도표준편차</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>pw (Partial pressure) water vapor_std</t>
+          <t>PW(?)수증기표준편차</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Absolute Humidity (AH)_std</t>
+          <t>절대습도표준편차</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>absoluteAH_std</t>
+          <t>절대AH(?)표준편차</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>실내온도_min</t>
+          <t>최소실내온도</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>실내습도_min</t>
+          <t>최소실내습도</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>dew point (Td)_min</t>
+          <t>최소이슬점(Td)</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>HD_min</t>
+          <t>최소증산(HD)</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>atmospheric pressure_min</t>
+          <t>최소대기압</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>pws_min</t>
+          <t>최소PWS(?)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>W (moisture content)_min</t>
+          <t>최소수분량</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>h (enthalpy)_min</t>
+          <t>최소엔탈피</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>v (specific volume)_min</t>
+          <t>최소비부피</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>rho (density)_min</t>
+          <t>최소밀도</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>pw (Partial pressure) water vapor_min</t>
+          <t>최소PW(?)수증기</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Absolute Humidity (AH)_min</t>
+          <t>최소절대습도</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>absoluteAH_min</t>
+          <t>최소절대AH(?)</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>실내온도_max</t>
+          <t>최대실내온도</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>실내습도_max</t>
+          <t>최대실내습도</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>dew point (Td)_max</t>
+          <t>최대이슬점(Td)</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>HD_max</t>
+          <t>최대증산(HD)</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>atmospheric pressure_max</t>
+          <t>최대대기압</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>pws_max</t>
+          <t>최대PWS(?)</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>W (moisture content)_max</t>
+          <t>최대수분량</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>h (enthalpy)_max</t>
+          <t>최대엔탈피</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>v (specific volume)_max</t>
+          <t>최대비부피</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>rho (density)_max</t>
+          <t>최대밀도</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>pw (Partial pressure) water vapor_max</t>
+          <t>최대PW(?)수증기</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>Absolute Humidity (AH)_max</t>
+          <t>최대절대습도</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>absoluteAH_max</t>
+          <t>최대절대AH(?)</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>am_suitable_HD</t>
+          <t>오전적정증산(HD)누적시간</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>sun_suitable_HD</t>
+          <t>일출일몰적정증산(HD)누적시간</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>day_suitable_HD</t>
+          <t>하루적정증산(HD)누적시간</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>pm_unsuitable_HD</t>
+          <t>오후심각증산(HD)누적시간</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>am_unsuitable_HD</t>
+          <t>오전심각증산(HD)누적시간</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>low_temperature</t>
+          <t>12도이하온도누적시간</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>high_temperature</t>
+          <t>30도이상온도누적시간</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>suitable_temperature</t>
+          <t>적정온도누적시간</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>daytime_temperature</t>
+          <t>주간평균온도</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>nighttime_temperature</t>
+          <t>야간평균온도</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>afternoon_temperature</t>
+          <t>오후부터일몰까지평균온도</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>suitable_temperature_time</t>
+          <t>적정습도누적시간</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>suitable_humidity_time</t>
+          <t>일출전후한시간평균온도</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>sunrise_diff</t>
+          <t>일몰전후한시간평균온도</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>sunset_diff</t>
+          <t>적정온도변화폭(하위)</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>suitable_temperature_diff_lowerbound</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>suitable_temperature_diff_upperbound</t>
+          <t>적정온도변화폭(상위)</t>
         </is>
       </c>
     </row>
@@ -980,21 +975,18 @@
         <v>21.06550239234456</v>
       </c>
       <c r="BM2" t="n">
-        <v>2.066666666666667</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.083333333333333</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.8900000000000006</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="BR2" t="n">
         <v>1.289999999999999</v>
       </c>
     </row>
@@ -1192,21 +1184,18 @@
         <v>22.55653206650835</v>
       </c>
       <c r="BM3" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="BO3" t="n">
-        <v>16.5</v>
+        <v>1.810000000000002</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.810000000000002</v>
+        <v>-16</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR3" t="n">
         <v>1.100000000000001</v>
       </c>
     </row>
@@ -1404,21 +1393,18 @@
         <v>23.26230403800482</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9166666666666666</v>
+        <v>1.016666666666667</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.016666666666667</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BO4" t="n">
-        <v>1.289999999999999</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BP4" t="n">
-        <v>1.699999999999999</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="BR4" t="n">
         <v>0.8900000000000006</v>
       </c>
     </row>
@@ -1616,21 +1602,18 @@
         <v>20.47904988123519</v>
       </c>
       <c r="BM5" t="n">
-        <v>2.983333333333333</v>
+        <v>2.566666666666667</v>
       </c>
       <c r="BN5" t="n">
-        <v>2.566666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="BO5" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="BP5" t="n">
-        <v>1.6</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="BR5" t="n">
         <v>1.100000000000001</v>
       </c>
     </row>
@@ -1828,21 +1811,18 @@
         <v>22.79743467933502</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.85</v>
+        <v>10.31666666666667</v>
       </c>
       <c r="BN6" t="n">
-        <v>10.31666666666667</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BO6" t="n">
-        <v>1.699999999999999</v>
+        <v>1.789999999999999</v>
       </c>
       <c r="BP6" t="n">
-        <v>1.789999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="BR6" t="n">
         <v>2.199999999999999</v>
       </c>
     </row>
@@ -2040,21 +2020,18 @@
         <v>17.31313397129188</v>
       </c>
       <c r="BM7" t="n">
-        <v>3.6</v>
+        <v>19.65</v>
       </c>
       <c r="BN7" t="n">
-        <v>19.65</v>
+        <v>1.500000000000002</v>
       </c>
       <c r="BO7" t="n">
-        <v>1.500000000000002</v>
+        <v>1.59</v>
       </c>
       <c r="BP7" t="n">
-        <v>1.59</v>
+        <v>-0.8100000000000005</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-0.8100000000000005</v>
-      </c>
-      <c r="BR7" t="n">
         <v>-6.210000000000001</v>
       </c>
     </row>
@@ -2252,21 +2229,18 @@
         <v>20.48028571428575</v>
       </c>
       <c r="BM8" t="n">
-        <v>1.85</v>
+        <v>16.06666666666667</v>
       </c>
       <c r="BN8" t="n">
-        <v>16.06666666666667</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BO8" t="n">
-        <v>1.390000000000001</v>
+        <v>1.51</v>
       </c>
       <c r="BP8" t="n">
-        <v>1.51</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0.6099999999999994</v>
-      </c>
-      <c r="BR8" t="n">
         <v>-0.2100000000000009</v>
       </c>
     </row>
@@ -2464,21 +2438,18 @@
         <v>21.1127553444181</v>
       </c>
       <c r="BM9" t="n">
-        <v>1.983333333333333</v>
+        <v>13.48333333333333</v>
       </c>
       <c r="BN9" t="n">
-        <v>13.48333333333333</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="BO9" t="n">
-        <v>1.399999999999999</v>
+        <v>1.81</v>
       </c>
       <c r="BP9" t="n">
-        <v>1.81</v>
+        <v>-0.3100000000000005</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0.3100000000000005</v>
-      </c>
-      <c r="BR9" t="n">
         <v>-0.7100000000000009</v>
       </c>
     </row>
@@ -2676,21 +2647,18 @@
         <v>21.61204275534449</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.7833333333333333</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="BN10" t="n">
-        <v>1.416666666666667</v>
+        <v>0.3099999999999987</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.3099999999999987</v>
+        <v>1.689999999999998</v>
       </c>
       <c r="BP10" t="n">
-        <v>1.689999999999998</v>
+        <v>-0.1099999999999994</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.1099999999999994</v>
-      </c>
-      <c r="BR10" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2888,21 +2856,18 @@
         <v>23.25123515439439</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.9833333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN11" t="n">
-        <v>0</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.1000000000000014</v>
+        <v>1.710000000000001</v>
       </c>
       <c r="BP11" t="n">
-        <v>1.710000000000001</v>
+        <v>-0.1099999999999994</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0.1099999999999994</v>
-      </c>
-      <c r="BR11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,21 +3065,18 @@
         <v>22.04935866983378</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.9166666666666666</v>
+        <v>1.883333333333333</v>
       </c>
       <c r="BN12" t="n">
-        <v>1.883333333333333</v>
+        <v>1.190000000000001</v>
       </c>
       <c r="BO12" t="n">
-        <v>1.190000000000001</v>
+        <v>1.700000000000001</v>
       </c>
       <c r="BP12" t="n">
-        <v>1.700000000000001</v>
+        <v>-0.3100000000000005</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-0.3100000000000005</v>
-      </c>
-      <c r="BR12" t="n">
         <v>0.1999999999999993</v>
       </c>
     </row>
@@ -3312,21 +3274,18 @@
         <v>20.26788598574828</v>
       </c>
       <c r="BM13" t="n">
-        <v>1.416666666666667</v>
+        <v>7.816666666666666</v>
       </c>
       <c r="BN13" t="n">
-        <v>7.816666666666666</v>
+        <v>1.309999999999999</v>
       </c>
       <c r="BO13" t="n">
-        <v>1.309999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="BP13" t="n">
-        <v>1.6</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="BR13" t="n">
         <v>1.789999999999999</v>
       </c>
     </row>
@@ -3524,21 +3483,18 @@
         <v>21.23883610451317</v>
       </c>
       <c r="BM14" t="n">
-        <v>1.016666666666667</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.6899999999999977</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.6899999999999977</v>
+        <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR14" t="n">
         <v>-1.5</v>
       </c>
     </row>
@@ -3736,21 +3692,18 @@
         <v>22.10674584323045</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="BN15" t="n">
-        <v>0</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.1999999999999993</v>
+        <v>1.109999999999999</v>
       </c>
       <c r="BP15" t="n">
-        <v>1.109999999999999</v>
+        <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR15" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -3948,21 +3901,18 @@
         <v>20.90852731591453</v>
       </c>
       <c r="BM16" t="n">
-        <v>1.033333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN16" t="n">
-        <v>0</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.4100000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="BP16" t="n">
-        <v>1.5</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="BQ16" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="BR16" t="n">
         <v>-0.2100000000000009</v>
       </c>
     </row>
@@ -4160,21 +4110,18 @@
         <v>21.90845605700717</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="BN17" t="n">
-        <v>0</v>
+        <v>0.1900000000000013</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.1900000000000013</v>
+        <v>2</v>
       </c>
       <c r="BP17" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="BQ17" t="n">
-        <v>-3</v>
-      </c>
-      <c r="BR17" t="n">
         <v>1.390000000000001</v>
       </c>
     </row>
@@ -4372,21 +4319,18 @@
         <v>23.00845605700718</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.6166666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN18" t="n">
-        <v>0</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.8999999999999986</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BP18" t="n">
-        <v>1.289999999999999</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="BQ18" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="BR18" t="n">
         <v>1.390000000000001</v>
       </c>
     </row>
@@ -4584,21 +4528,18 @@
         <v>21.02251781472687</v>
       </c>
       <c r="BM19" t="n">
-        <v>1.566666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO19" t="n">
-        <v>1</v>
+        <v>1.109999999999999</v>
       </c>
       <c r="BP19" t="n">
-        <v>1.109999999999999</v>
+        <v>-16</v>
       </c>
       <c r="BQ19" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR19" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -4796,21 +4737,18 @@
         <v>21.69534441805231</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.7166666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN20" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="BO20" t="n">
-        <v>1.09</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="BP20" t="n">
-        <v>1.300000000000001</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="BQ20" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="BR20" t="n">
         <v>-0.2100000000000009</v>
       </c>
     </row>
@@ -5008,21 +4946,18 @@
         <v>21.9535391923991</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.8166666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN21" t="n">
-        <v>0</v>
+        <v>0.3100000000000023</v>
       </c>
       <c r="BO21" t="n">
-        <v>0.3100000000000023</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BP21" t="n">
-        <v>1.100000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ21" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="BR21" t="n">
         <v>1.199999999999999</v>
       </c>
     </row>
@@ -5220,21 +5155,18 @@
         <v>20.12477434679339</v>
       </c>
       <c r="BM22" t="n">
-        <v>2.316666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="BN22" t="n">
-        <v>0.06666666666666667</v>
+        <v>1.01</v>
       </c>
       <c r="BO22" t="n">
-        <v>1.01</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="BP22" t="n">
-        <v>1.199999999999999</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="BQ22" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="BR22" t="n">
         <v>-0.3999999999999986</v>
       </c>
     </row>
@@ -5432,21 +5364,18 @@
         <v>22.13068883610458</v>
       </c>
       <c r="BM23" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="BN23" t="n">
-        <v>0</v>
+        <v>0.2899999999999991</v>
       </c>
       <c r="BO23" t="n">
-        <v>0.2899999999999991</v>
+        <v>1.6</v>
       </c>
       <c r="BP23" t="n">
-        <v>1.6</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BQ23" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="BR23" t="n">
         <v>0.7899999999999991</v>
       </c>
     </row>
@@ -5644,21 +5573,18 @@
         <v>23.37327790973881</v>
       </c>
       <c r="BM24" t="n">
-        <v>0.6833333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN24" t="n">
-        <v>0</v>
+        <v>0.3099999999999987</v>
       </c>
       <c r="BO24" t="n">
-        <v>0.3099999999999987</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="BP24" t="n">
-        <v>1.600000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ24" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="BR24" t="n">
         <v>1.699999999999999</v>
       </c>
     </row>
@@ -5856,21 +5782,18 @@
         <v>22.7898099762471</v>
       </c>
       <c r="BM25" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="BN25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BO25" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="BP25" t="n">
-        <v>1.4</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ25" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="BR25" t="n">
         <v>0.7899999999999991</v>
       </c>
     </row>
@@ -6068,21 +5991,18 @@
         <v>24.08204275534451</v>
       </c>
       <c r="BM26" t="n">
-        <v>1.066666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BO26" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="BP26" t="n">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ26" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="BR26" t="n">
         <v>1.390000000000001</v>
       </c>
     </row>
@@ -6280,21 +6200,18 @@
         <v>22.93757719714973</v>
       </c>
       <c r="BM27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN27" t="n">
-        <v>0</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BO27" t="n">
-        <v>0.3000000000000007</v>
+        <v>1.19</v>
       </c>
       <c r="BP27" t="n">
-        <v>1.19</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BQ27" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="BR27" t="n">
         <v>2.199999999999999</v>
       </c>
     </row>
@@ -6492,21 +6409,18 @@
         <v>23.15230403800481</v>
       </c>
       <c r="BM28" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="BN28" t="n">
-        <v>0</v>
+        <v>0.7899999999999991</v>
       </c>
       <c r="BO28" t="n">
-        <v>0.7899999999999991</v>
+        <v>1.4</v>
       </c>
       <c r="BP28" t="n">
-        <v>1.4</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BQ28" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="BR28" t="n">
         <v>1.289999999999999</v>
       </c>
     </row>
@@ -6704,21 +6618,18 @@
         <v>22.59657957244664</v>
       </c>
       <c r="BM29" t="n">
-        <v>0.9333333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN29" t="n">
-        <v>0</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BO29" t="n">
-        <v>0.6999999999999993</v>
+        <v>1.9</v>
       </c>
       <c r="BP29" t="n">
-        <v>1.9</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BQ29" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="BR29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6916,21 +6827,18 @@
         <v>17.77073634204277</v>
       </c>
       <c r="BM30" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="BN30" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BO30" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BP30" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="BQ30" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR30" t="n">
         <v>0.1000000000000014</v>
       </c>
     </row>
@@ -7128,21 +7036,18 @@
         <v>14.64732696897375</v>
       </c>
       <c r="BM31" t="n">
-        <v>2.866666666666667</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="BN31" t="n">
-        <v>2.266666666666667</v>
+        <v>0</v>
       </c>
       <c r="BO31" t="n">
         <v>0</v>
       </c>
       <c r="BP31" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="BQ31" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR31" t="n">
         <v>-1.609999999999999</v>
       </c>
     </row>
@@ -7340,21 +7245,18 @@
         <v>16.60161520190027</v>
       </c>
       <c r="BM32" t="n">
-        <v>2.416666666666667</v>
+        <v>3.716666666666667</v>
       </c>
       <c r="BN32" t="n">
-        <v>3.716666666666667</v>
+        <v>15.6</v>
       </c>
       <c r="BO32" t="n">
-        <v>15.6</v>
+        <v>1.790000000000001</v>
       </c>
       <c r="BP32" t="n">
-        <v>1.790000000000001</v>
+        <v>-16</v>
       </c>
       <c r="BQ32" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR32" t="n">
         <v>-3</v>
       </c>
     </row>
@@ -7552,21 +7454,18 @@
         <v>17.58624703087888</v>
       </c>
       <c r="BM33" t="n">
-        <v>2.966666666666667</v>
+        <v>3.033333333333333</v>
       </c>
       <c r="BN33" t="n">
-        <v>3.033333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="BO33" t="n">
-        <v>1.5</v>
+        <v>15.5</v>
       </c>
       <c r="BP33" t="n">
-        <v>15.5</v>
+        <v>-16</v>
       </c>
       <c r="BQ33" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7764,21 +7663,18 @@
         <v>16.7722090261283</v>
       </c>
       <c r="BM34" t="n">
-        <v>1.516666666666667</v>
+        <v>4.633333333333334</v>
       </c>
       <c r="BN34" t="n">
-        <v>4.633333333333334</v>
+        <v>1.6</v>
       </c>
       <c r="BO34" t="n">
-        <v>1.6</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="BP34" t="n">
-        <v>1.799999999999999</v>
+        <v>-16</v>
       </c>
       <c r="BQ34" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR34" t="n">
         <v>-0.7100000000000009</v>
       </c>
     </row>
@@ -7976,21 +7872,18 @@
         <v>16.61251781472686</v>
       </c>
       <c r="BM35" t="n">
-        <v>2.516666666666667</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="BN35" t="n">
-        <v>3.416666666666667</v>
+        <v>1.709999999999999</v>
       </c>
       <c r="BO35" t="n">
-        <v>1.709999999999999</v>
+        <v>14.6</v>
       </c>
       <c r="BP35" t="n">
-        <v>14.6</v>
+        <v>-16</v>
       </c>
       <c r="BQ35" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR35" t="n">
         <v>1.699999999999999</v>
       </c>
     </row>
@@ -8188,21 +8081,18 @@
         <v>17.24451306413305</v>
       </c>
       <c r="BM36" t="n">
-        <v>2.75</v>
+        <v>7.05</v>
       </c>
       <c r="BN36" t="n">
-        <v>7.05</v>
+        <v>15.6</v>
       </c>
       <c r="BO36" t="n">
-        <v>15.6</v>
+        <v>1.91</v>
       </c>
       <c r="BP36" t="n">
-        <v>1.91</v>
+        <v>-16</v>
       </c>
       <c r="BQ36" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR36" t="n">
         <v>0.2899999999999991</v>
       </c>
     </row>
@@ -8400,21 +8290,18 @@
         <v>19.01655581947746</v>
       </c>
       <c r="BM37" t="n">
-        <v>1.216666666666667</v>
+        <v>5.066666666666666</v>
       </c>
       <c r="BN37" t="n">
-        <v>5.066666666666666</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BO37" t="n">
-        <v>1.699999999999999</v>
+        <v>15.39</v>
       </c>
       <c r="BP37" t="n">
-        <v>15.39</v>
+        <v>-16</v>
       </c>
       <c r="BQ37" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR37" t="n">
         <v>2.199999999999999</v>
       </c>
     </row>
@@ -8612,21 +8499,18 @@
         <v>19.97703087885988</v>
       </c>
       <c r="BM38" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="BN38" t="n">
-        <v>3.7</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BO38" t="n">
-        <v>1.390000000000001</v>
+        <v>1.889999999999999</v>
       </c>
       <c r="BP38" t="n">
-        <v>1.889999999999999</v>
+        <v>-16</v>
       </c>
       <c r="BQ38" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR38" t="n">
         <v>3.789999999999999</v>
       </c>
     </row>
@@ -8824,21 +8708,18 @@
         <v>18.67909738717342</v>
       </c>
       <c r="BM39" t="n">
-        <v>1.5</v>
+        <v>5.933333333333334</v>
       </c>
       <c r="BN39" t="n">
-        <v>5.933333333333334</v>
+        <v>1.4</v>
       </c>
       <c r="BO39" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="BP39" t="n">
-        <v>2</v>
+        <v>-2.609999999999999</v>
       </c>
       <c r="BQ39" t="n">
-        <v>-2.609999999999999</v>
-      </c>
-      <c r="BR39" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9036,21 +8917,18 @@
         <v>17.77196642685854</v>
       </c>
       <c r="BM40" t="n">
-        <v>1.9</v>
+        <v>7.516666666666667</v>
       </c>
       <c r="BN40" t="n">
-        <v>7.516666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="BO40" t="n">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="BP40" t="n">
-        <v>1.81</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ40" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR40" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -9248,21 +9126,18 @@
         <v>20.33447619047622</v>
       </c>
       <c r="BM41" t="n">
-        <v>0.85</v>
+        <v>9.25</v>
       </c>
       <c r="BN41" t="n">
-        <v>9.25</v>
+        <v>1.5</v>
       </c>
       <c r="BO41" t="n">
         <v>1.5</v>
       </c>
       <c r="BP41" t="n">
-        <v>1.5</v>
+        <v>-2.4</v>
       </c>
       <c r="BQ41" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="BR41" t="n">
         <v>-0.3999999999999986</v>
       </c>
     </row>
@@ -9460,21 +9335,18 @@
         <v>18.5841904761905</v>
       </c>
       <c r="BM42" t="n">
-        <v>0.9666666666666667</v>
+        <v>9.783333333333333</v>
       </c>
       <c r="BN42" t="n">
-        <v>9.783333333333333</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BO42" t="n">
-        <v>1.390000000000001</v>
+        <v>2.09</v>
       </c>
       <c r="BP42" t="n">
-        <v>2.09</v>
+        <v>-2.4</v>
       </c>
       <c r="BQ42" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="BR42" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -9672,21 +9544,18 @@
         <v>18.20781472684087</v>
       </c>
       <c r="BM43" t="n">
-        <v>1.45</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BN43" t="n">
-        <v>9.199999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="BO43" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="BP43" t="n">
-        <v>1.91</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ43" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9884,21 +9753,18 @@
         <v>17.11411057692312</v>
       </c>
       <c r="BM44" t="n">
-        <v>2.033333333333333</v>
+        <v>4.1</v>
       </c>
       <c r="BN44" t="n">
-        <v>4.1</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BO44" t="n">
-        <v>0.3000000000000007</v>
+        <v>15.5</v>
       </c>
       <c r="BP44" t="n">
-        <v>15.5</v>
+        <v>-16</v>
       </c>
       <c r="BQ44" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR44" t="n">
         <v>2.890000000000001</v>
       </c>
     </row>
@@ -10096,21 +9962,18 @@
         <v>21.20012019230772</v>
       </c>
       <c r="BM45" t="n">
-        <v>2.2</v>
+        <v>18.18333333333333</v>
       </c>
       <c r="BN45" t="n">
-        <v>18.18333333333333</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BO45" t="n">
-        <v>1.699999999999999</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="BP45" t="n">
-        <v>3.100000000000001</v>
+        <v>-2.4</v>
       </c>
       <c r="BQ45" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="BR45" t="n">
         <v>0.8900000000000006</v>
       </c>
     </row>
@@ -10308,21 +10171,18 @@
         <v>19.4564028776979</v>
       </c>
       <c r="BM46" t="n">
-        <v>0.4833333333333333</v>
+        <v>16.43333333333333</v>
       </c>
       <c r="BN46" t="n">
-        <v>16.43333333333333</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BO46" t="n">
-        <v>1.699999999999999</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="BP46" t="n">
-        <v>2.300000000000001</v>
+        <v>-3.31</v>
       </c>
       <c r="BQ46" t="n">
-        <v>-3.31</v>
-      </c>
-      <c r="BR46" t="n">
         <v>0.6000000000000014</v>
       </c>
     </row>
@@ -10520,21 +10380,18 @@
         <v>18.06774580335737</v>
       </c>
       <c r="BM47" t="n">
-        <v>1.633333333333333</v>
+        <v>17.5</v>
       </c>
       <c r="BN47" t="n">
-        <v>17.5</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BO47" t="n">
-        <v>1.699999999999999</v>
+        <v>1.799999999999999</v>
       </c>
       <c r="BP47" t="n">
-        <v>1.799999999999999</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ47" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR47" t="n">
         <v>-0.8000000000000007</v>
       </c>
     </row>
@@ -10732,21 +10589,18 @@
         <v>18.27027295285362</v>
       </c>
       <c r="BM48" t="n">
-        <v>1.2</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="BN48" t="n">
-        <v>14.58333333333333</v>
+        <v>0.6899999999999995</v>
       </c>
       <c r="BO48" t="n">
-        <v>0.6899999999999995</v>
+        <v>15.5</v>
       </c>
       <c r="BP48" t="n">
-        <v>15.5</v>
+        <v>-16</v>
       </c>
       <c r="BQ48" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR48" t="n">
         <v>2</v>
       </c>
     </row>
@@ -10944,21 +10798,18 @@
         <v>18.09147783251234</v>
       </c>
       <c r="BM49" t="n">
-        <v>3.133333333333333</v>
+        <v>14.91666666666667</v>
       </c>
       <c r="BN49" t="n">
-        <v>14.91666666666667</v>
+        <v>1.6</v>
       </c>
       <c r="BO49" t="n">
-        <v>1.6</v>
+        <v>15.6</v>
       </c>
       <c r="BP49" t="n">
-        <v>15.6</v>
+        <v>-16</v>
       </c>
       <c r="BQ49" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR49" t="n">
         <v>1.890000000000001</v>
       </c>
     </row>
@@ -11156,21 +11007,18 @@
         <v>14.94725060827253</v>
       </c>
       <c r="BM50" t="n">
-        <v>0</v>
+        <v>22.88333333333333</v>
       </c>
       <c r="BN50" t="n">
-        <v>22.88333333333333</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BO50" t="n">
-        <v>1.699999999999999</v>
+        <v>1.610000000000001</v>
       </c>
       <c r="BP50" t="n">
-        <v>1.610000000000001</v>
+        <v>-2.5</v>
       </c>
       <c r="BQ50" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="BR50" t="n">
         <v>-8.5</v>
       </c>
     </row>
@@ -11368,21 +11216,18 @@
         <v>16.70907692307695</v>
       </c>
       <c r="BM51" t="n">
-        <v>2.966666666666667</v>
+        <v>16.08333333333333</v>
       </c>
       <c r="BN51" t="n">
-        <v>16.08333333333333</v>
+        <v>1.59</v>
       </c>
       <c r="BO51" t="n">
-        <v>1.59</v>
+        <v>1.91</v>
       </c>
       <c r="BP51" t="n">
-        <v>1.91</v>
+        <v>-16</v>
       </c>
       <c r="BQ51" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR51" t="n">
         <v>-1.109999999999999</v>
       </c>
     </row>
@@ -11580,21 +11425,18 @@
         <v>20.5996097560976</v>
       </c>
       <c r="BM52" t="n">
-        <v>0.8</v>
+        <v>14.86666666666667</v>
       </c>
       <c r="BN52" t="n">
-        <v>14.86666666666667</v>
+        <v>1.790000000000001</v>
       </c>
       <c r="BO52" t="n">
-        <v>1.790000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="BP52" t="n">
-        <v>15.5</v>
+        <v>-16</v>
       </c>
       <c r="BQ52" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR52" t="n">
         <v>2.600000000000001</v>
       </c>
     </row>
@@ -11792,21 +11634,18 @@
         <v>22.45572463768119</v>
       </c>
       <c r="BM53" t="n">
-        <v>0.4166666666666667</v>
+        <v>12.98333333333333</v>
       </c>
       <c r="BN53" t="n">
-        <v>12.98333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="BO53" t="n">
-        <v>1.5</v>
+        <v>17.2</v>
       </c>
       <c r="BP53" t="n">
-        <v>17.2</v>
+        <v>-16</v>
       </c>
       <c r="BQ53" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR53" t="n">
         <v>4.199999999999999</v>
       </c>
     </row>
@@ -12004,21 +11843,18 @@
         <v>23.96217703349289</v>
       </c>
       <c r="BM54" t="n">
-        <v>1.3</v>
+        <v>0.95</v>
       </c>
       <c r="BN54" t="n">
-        <v>0.95</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BO54" t="n">
         <v>1.699999999999999</v>
       </c>
       <c r="BP54" t="n">
-        <v>1.699999999999999</v>
+        <v>-16</v>
       </c>
       <c r="BQ54" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR54" t="n">
         <v>5.199999999999999</v>
       </c>
     </row>
@@ -12216,21 +12052,18 @@
         <v>16.08931116389554</v>
       </c>
       <c r="BM55" t="n">
-        <v>0.7666666666666667</v>
+        <v>8.5</v>
       </c>
       <c r="BN55" t="n">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="BO55" t="n">
-        <v>1.5</v>
+        <v>15.39</v>
       </c>
       <c r="BP55" t="n">
-        <v>15.39</v>
+        <v>-16</v>
       </c>
       <c r="BQ55" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR55" t="n">
         <v>1.390000000000001</v>
       </c>
     </row>
@@ -12428,21 +12261,18 @@
         <v>20.80294416243659</v>
       </c>
       <c r="BM56" t="n">
-        <v>0.45</v>
+        <v>14.2</v>
       </c>
       <c r="BN56" t="n">
-        <v>14.2</v>
+        <v>1.81</v>
       </c>
       <c r="BO56" t="n">
-        <v>1.81</v>
+        <v>15.6</v>
       </c>
       <c r="BP56" t="n">
-        <v>15.6</v>
+        <v>-16</v>
       </c>
       <c r="BQ56" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR56" t="n">
         <v>2.100000000000001</v>
       </c>
     </row>
@@ -12640,21 +12470,18 @@
         <v>17.67061274509807</v>
       </c>
       <c r="BM57" t="n">
-        <v>2.116666666666667</v>
+        <v>10.25</v>
       </c>
       <c r="BN57" t="n">
-        <v>10.25</v>
+        <v>1.700000000000001</v>
       </c>
       <c r="BO57" t="n">
-        <v>1.700000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="BP57" t="n">
-        <v>15.5</v>
+        <v>-16</v>
       </c>
       <c r="BQ57" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR57" t="n">
         <v>0.1000000000000014</v>
       </c>
     </row>
@@ -12852,21 +12679,18 @@
         <v>18.39922500000002</v>
       </c>
       <c r="BM58" t="n">
-        <v>4.133333333333334</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="BN58" t="n">
-        <v>11.16666666666667</v>
+        <v>1.700000000000001</v>
       </c>
       <c r="BO58" t="n">
-        <v>1.700000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="BP58" t="n">
-        <v>16.2</v>
+        <v>-16</v>
       </c>
       <c r="BQ58" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR58" t="n">
         <v>-3.609999999999999</v>
       </c>
     </row>
@@ -13064,21 +12888,18 @@
         <v>17.12113861386141</v>
       </c>
       <c r="BM59" t="n">
-        <v>3.133333333333333</v>
+        <v>13</v>
       </c>
       <c r="BN59" t="n">
-        <v>13</v>
+        <v>1.59</v>
       </c>
       <c r="BO59" t="n">
-        <v>1.59</v>
+        <v>15.6</v>
       </c>
       <c r="BP59" t="n">
-        <v>15.6</v>
+        <v>-16</v>
       </c>
       <c r="BQ59" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR59" t="n">
         <v>-3</v>
       </c>
     </row>
@@ -13276,21 +13097,18 @@
         <v>18.51722921914359</v>
       </c>
       <c r="BM60" t="n">
-        <v>3.133333333333333</v>
+        <v>13.2</v>
       </c>
       <c r="BN60" t="n">
-        <v>13.2</v>
+        <v>1.59</v>
       </c>
       <c r="BO60" t="n">
-        <v>1.59</v>
+        <v>15.6</v>
       </c>
       <c r="BP60" t="n">
-        <v>15.6</v>
+        <v>-16</v>
       </c>
       <c r="BQ60" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR60" t="n">
         <v>-1.210000000000001</v>
       </c>
     </row>
@@ -13488,21 +13306,18 @@
         <v>20.05059278350517</v>
       </c>
       <c r="BM61" t="n">
-        <v>0.7666666666666667</v>
+        <v>7.3</v>
       </c>
       <c r="BN61" t="n">
-        <v>7.3</v>
+        <v>1.81</v>
       </c>
       <c r="BO61" t="n">
-        <v>1.81</v>
+        <v>16.2</v>
       </c>
       <c r="BP61" t="n">
-        <v>16.2</v>
+        <v>-16</v>
       </c>
       <c r="BQ61" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13700,21 +13515,18 @@
         <v>20.78730769230772</v>
       </c>
       <c r="BM62" t="n">
-        <v>1.65</v>
+        <v>8.383333333333333</v>
       </c>
       <c r="BN62" t="n">
-        <v>8.383333333333333</v>
+        <v>1.91</v>
       </c>
       <c r="BO62" t="n">
-        <v>1.91</v>
+        <v>17.5</v>
       </c>
       <c r="BP62" t="n">
-        <v>17.5</v>
+        <v>-16</v>
       </c>
       <c r="BQ62" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR62" t="n">
         <v>1.890000000000001</v>
       </c>
     </row>
@@ -13912,21 +13724,18 @@
         <v>22.49555844155842</v>
       </c>
       <c r="BM63" t="n">
-        <v>0.4833333333333333</v>
+        <v>3.633333333333333</v>
       </c>
       <c r="BN63" t="n">
-        <v>3.633333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="BO63" t="n">
-        <v>1.5</v>
+        <v>2.500000000000002</v>
       </c>
       <c r="BP63" t="n">
-        <v>2.500000000000002</v>
+        <v>-16</v>
       </c>
       <c r="BQ63" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR63" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14124,21 +13933,18 @@
         <v>24.53140000000005</v>
       </c>
       <c r="BM64" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="BN64" t="n">
-        <v>0.6333333333333333</v>
+        <v>1.9</v>
       </c>
       <c r="BO64" t="n">
-        <v>1.9</v>
+        <v>19.5</v>
       </c>
       <c r="BP64" t="n">
-        <v>19.5</v>
+        <v>-16</v>
       </c>
       <c r="BQ64" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR64" t="n">
         <v>4.600000000000001</v>
       </c>
     </row>
@@ -14336,21 +14142,18 @@
         <v>9.541042780748652</v>
       </c>
       <c r="BM65" t="n">
-        <v>3.45</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="BN65" t="n">
-        <v>0.1833333333333333</v>
+        <v>0.2099999999999991</v>
       </c>
       <c r="BO65" t="n">
-        <v>0.2099999999999991</v>
+        <v>15.3</v>
       </c>
       <c r="BP65" t="n">
-        <v>15.3</v>
+        <v>-16</v>
       </c>
       <c r="BQ65" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR65" t="n">
         <v>-5.800000000000001</v>
       </c>
     </row>
@@ -14548,21 +14351,18 @@
         <v>13.20269565217391</v>
       </c>
       <c r="BM66" t="n">
-        <v>0.06666666666666667</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="BN66" t="n">
-        <v>2.083333333333333</v>
+        <v>15.39</v>
       </c>
       <c r="BO66" t="n">
-        <v>15.39</v>
+        <v>16.1</v>
       </c>
       <c r="BP66" t="n">
-        <v>16.1</v>
+        <v>-16</v>
       </c>
       <c r="BQ66" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR66" t="n">
         <v>-0.8000000000000007</v>
       </c>
     </row>
@@ -14760,21 +14560,18 @@
         <v>1.07992628992629</v>
       </c>
       <c r="BM67" t="n">
-        <v>0.3833333333333334</v>
+        <v>6.8</v>
       </c>
       <c r="BN67" t="n">
-        <v>6.8</v>
+        <v>2.399999999999999</v>
       </c>
       <c r="BO67" t="n">
-        <v>2.399999999999999</v>
+        <v>15.1</v>
       </c>
       <c r="BP67" t="n">
-        <v>15.1</v>
+        <v>-16</v>
       </c>
       <c r="BQ67" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR67" t="n">
         <v>-0.7100000000000009</v>
       </c>
     </row>
@@ -14972,21 +14769,18 @@
         <v>14.07450495049506</v>
       </c>
       <c r="BM68" t="n">
-        <v>1.916666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="BN68" t="n">
-        <v>4.5</v>
+        <v>16.1</v>
       </c>
       <c r="BO68" t="n">
-        <v>16.1</v>
+        <v>0.5</v>
       </c>
       <c r="BP68" t="n">
-        <v>0.5</v>
+        <v>-16</v>
       </c>
       <c r="BQ68" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR68" t="n">
         <v>-6.899999999999999</v>
       </c>
     </row>
@@ -15184,21 +14978,18 @@
         <v>10.62967845659164</v>
       </c>
       <c r="BM69" t="n">
-        <v>2.7</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="BN69" t="n">
-        <v>0.6333333333333333</v>
+        <v>15.8</v>
       </c>
       <c r="BO69" t="n">
-        <v>15.8</v>
+        <v>15.89</v>
       </c>
       <c r="BP69" t="n">
-        <v>15.89</v>
+        <v>-16</v>
       </c>
       <c r="BQ69" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR69" t="n">
         <v>-6.109999999999999</v>
       </c>
     </row>
@@ -15396,21 +15187,18 @@
         <v>16.9048806366048</v>
       </c>
       <c r="BM70" t="n">
-        <v>1.7</v>
+        <v>2.766666666666667</v>
       </c>
       <c r="BN70" t="n">
-        <v>2.766666666666667</v>
+        <v>2.000000000000002</v>
       </c>
       <c r="BO70" t="n">
-        <v>2.000000000000002</v>
+        <v>15.6</v>
       </c>
       <c r="BP70" t="n">
-        <v>15.6</v>
+        <v>-16</v>
       </c>
       <c r="BQ70" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR70" t="n">
         <v>-2.5</v>
       </c>
     </row>
@@ -15608,21 +15396,18 @@
         <v>16.55392344497609</v>
       </c>
       <c r="BM71" t="n">
-        <v>1.35</v>
+        <v>5.433333333333334</v>
       </c>
       <c r="BN71" t="n">
-        <v>5.433333333333334</v>
+        <v>2.6</v>
       </c>
       <c r="BO71" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="BP71" t="n">
-        <v>2</v>
+        <v>-16</v>
       </c>
       <c r="BQ71" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR71" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -15820,21 +15605,18 @@
         <v>17.65573298429319</v>
       </c>
       <c r="BM72" t="n">
-        <v>2.116666666666667</v>
+        <v>2.35</v>
       </c>
       <c r="BN72" t="n">
-        <v>2.35</v>
+        <v>16.39</v>
       </c>
       <c r="BO72" t="n">
-        <v>16.39</v>
+        <v>14.69</v>
       </c>
       <c r="BP72" t="n">
-        <v>14.69</v>
+        <v>-16</v>
       </c>
       <c r="BQ72" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR72" t="n">
         <v>-1.800000000000001</v>
       </c>
     </row>
@@ -16032,21 +15814,18 @@
         <v>19.75628640776702</v>
       </c>
       <c r="BM73" t="n">
-        <v>1.883333333333333</v>
+        <v>3.1</v>
       </c>
       <c r="BN73" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="BO73" t="n">
-        <v>0</v>
+        <v>16.79</v>
       </c>
       <c r="BP73" t="n">
-        <v>16.79</v>
+        <v>-16</v>
       </c>
       <c r="BQ73" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR73" t="n">
         <v>-1.899999999999999</v>
       </c>
     </row>
@@ -16244,21 +16023,18 @@
         <v>19.03349009900993</v>
       </c>
       <c r="BM74" t="n">
-        <v>2.233333333333333</v>
+        <v>4.55</v>
       </c>
       <c r="BN74" t="n">
-        <v>4.55</v>
+        <v>16.5</v>
       </c>
       <c r="BO74" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="BP74" t="n">
-        <v>17.5</v>
+        <v>-16</v>
       </c>
       <c r="BQ74" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR74" t="n">
         <v>-1.5</v>
       </c>
     </row>
@@ -16456,21 +16232,18 @@
         <v>21.47843835616441</v>
       </c>
       <c r="BM75" t="n">
-        <v>1.283333333333333</v>
+        <v>2.466666666666667</v>
       </c>
       <c r="BN75" t="n">
-        <v>2.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="BO75" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BP75" t="n">
-        <v>18</v>
+        <v>-16</v>
       </c>
       <c r="BQ75" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR75" t="n">
         <v>1.100000000000001</v>
       </c>
     </row>
@@ -16677,12 +16450,9 @@
         <v>0</v>
       </c>
       <c r="BP76" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="BQ76" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR76" t="n">
         <v>-26</v>
       </c>
     </row>
@@ -16889,12 +16659,9 @@
         <v>0</v>
       </c>
       <c r="BP77" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="BQ77" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR77" t="n">
         <v>-26</v>
       </c>
     </row>
@@ -17092,21 +16859,18 @@
         <v>23.05365155131271</v>
       </c>
       <c r="BM78" t="n">
-        <v>0.8</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="BN78" t="n">
-        <v>2.083333333333333</v>
+        <v>0</v>
       </c>
       <c r="BO78" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="BP78" t="n">
-        <v>3.19</v>
+        <v>-2473.6</v>
       </c>
       <c r="BQ78" t="n">
-        <v>-2473.6</v>
-      </c>
-      <c r="BR78" t="n">
         <v>0.7899999999999991</v>
       </c>
     </row>
@@ -17304,21 +17068,18 @@
         <v>22.17264285714295</v>
       </c>
       <c r="BM79" t="n">
-        <v>2.233333333333333</v>
+        <v>6.3</v>
       </c>
       <c r="BN79" t="n">
-        <v>6.3</v>
+        <v>0.5</v>
       </c>
       <c r="BO79" t="n">
-        <v>0.5</v>
+        <v>2.399999999999999</v>
       </c>
       <c r="BP79" t="n">
-        <v>2.399999999999999</v>
+        <v>-1.9</v>
       </c>
       <c r="BQ79" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="BR79" t="n">
         <v>0.7899999999999991</v>
       </c>
     </row>
@@ -17516,21 +17277,18 @@
         <v>24.80323600973245</v>
       </c>
       <c r="BM80" t="n">
-        <v>1.466666666666667</v>
+        <v>4.05</v>
       </c>
       <c r="BN80" t="n">
-        <v>4.05</v>
+        <v>0.7099999999999991</v>
       </c>
       <c r="BO80" t="n">
-        <v>0.7099999999999991</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="BP80" t="n">
-        <v>4.899999999999999</v>
+        <v>-1.81</v>
       </c>
       <c r="BQ80" t="n">
-        <v>-1.81</v>
-      </c>
-      <c r="BR80" t="n">
         <v>1.890000000000001</v>
       </c>
     </row>
@@ -17728,21 +17486,18 @@
         <v>22.34732804232807</v>
       </c>
       <c r="BM81" t="n">
-        <v>0.5</v>
+        <v>2.283333333333333</v>
       </c>
       <c r="BN81" t="n">
-        <v>2.283333333333333</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BO81" t="n">
-        <v>2.109999999999999</v>
+        <v>18.6</v>
       </c>
       <c r="BP81" t="n">
-        <v>18.6</v>
+        <v>-16</v>
       </c>
       <c r="BQ81" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR81" t="n">
         <v>1.699999999999999</v>
       </c>
     </row>
@@ -17940,21 +17695,18 @@
         <v>22.05058510638302</v>
       </c>
       <c r="BM82" t="n">
-        <v>2.066666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="BN82" t="n">
-        <v>7.083333333333333</v>
+        <v>2.09</v>
       </c>
       <c r="BO82" t="n">
-        <v>2.09</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="BP82" t="n">
-        <v>3.600000000000001</v>
+        <v>-16</v>
       </c>
       <c r="BQ82" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR82" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -18152,21 +17904,18 @@
         <v>26.53952879581162</v>
       </c>
       <c r="BM83" t="n">
-        <v>0.7333333333333333</v>
+        <v>3.55</v>
       </c>
       <c r="BN83" t="n">
-        <v>3.55</v>
+        <v>14.69</v>
       </c>
       <c r="BO83" t="n">
-        <v>14.69</v>
+        <v>5.310000000000002</v>
       </c>
       <c r="BP83" t="n">
-        <v>5.310000000000002</v>
+        <v>-16</v>
       </c>
       <c r="BQ83" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR83" t="n">
         <v>5</v>
       </c>
     </row>
@@ -18364,21 +18113,18 @@
         <v>14.082656641604</v>
       </c>
       <c r="BM84" t="n">
-        <v>0.9333333333333333</v>
+        <v>3.8</v>
       </c>
       <c r="BN84" t="n">
-        <v>3.8</v>
+        <v>15.39</v>
       </c>
       <c r="BO84" t="n">
-        <v>15.39</v>
+        <v>21</v>
       </c>
       <c r="BP84" t="n">
-        <v>21</v>
+        <v>-16</v>
       </c>
       <c r="BQ84" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR84" t="n">
         <v>5.600000000000001</v>
       </c>
     </row>
@@ -18576,21 +18322,18 @@
         <v>16.15962593516211</v>
       </c>
       <c r="BM85" t="n">
-        <v>3.083333333333333</v>
+        <v>0.85</v>
       </c>
       <c r="BN85" t="n">
-        <v>0.85</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BO85" t="n">
-        <v>0.3999999999999986</v>
+        <v>3.200000000000001</v>
       </c>
       <c r="BP85" t="n">
-        <v>3.200000000000001</v>
+        <v>-16</v>
       </c>
       <c r="BQ85" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR85" t="n">
         <v>-5.300000000000001</v>
       </c>
     </row>
@@ -18788,21 +18531,18 @@
         <v>16.88752969121143</v>
       </c>
       <c r="BM86" t="n">
-        <v>0.4333333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN86" t="n">
-        <v>0</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BO86" t="n">
-        <v>0.1999999999999993</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BP86" t="n">
-        <v>2.109999999999999</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BQ86" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="BR86" t="n">
         <v>-7.5</v>
       </c>
     </row>
@@ -19000,21 +18740,18 @@
         <v>16.99751807228917</v>
       </c>
       <c r="BM87" t="n">
-        <v>2.933333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="BN87" t="n">
-        <v>1.666666666666667</v>
+        <v>1.6</v>
       </c>
       <c r="BO87" t="n">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="BP87" t="n">
-        <v>1.41</v>
+        <v>-3.4</v>
       </c>
       <c r="BQ87" t="n">
-        <v>-3.4</v>
-      </c>
-      <c r="BR87" t="n">
         <v>-3.210000000000001</v>
       </c>
     </row>
@@ -19212,21 +18949,18 @@
         <v>19.40785714285718</v>
       </c>
       <c r="BM88" t="n">
-        <v>2.616666666666667</v>
+        <v>2</v>
       </c>
       <c r="BN88" t="n">
-        <v>2</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BO88" t="n">
-        <v>2.109999999999999</v>
+        <v>3.000000000000002</v>
       </c>
       <c r="BP88" t="n">
-        <v>3.000000000000002</v>
+        <v>-3.31</v>
       </c>
       <c r="BQ88" t="n">
-        <v>-3.31</v>
-      </c>
-      <c r="BR88" t="n">
         <v>-3.109999999999999</v>
       </c>
     </row>
@@ -19424,21 +19158,18 @@
         <v>19.63854415274468</v>
       </c>
       <c r="BM89" t="n">
-        <v>2.083333333333333</v>
+        <v>3.983333333333333</v>
       </c>
       <c r="BN89" t="n">
-        <v>3.983333333333333</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BO89" t="n">
-        <v>0.6000000000000014</v>
+        <v>0.5</v>
       </c>
       <c r="BP89" t="n">
-        <v>0.5</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ89" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR89" t="n">
         <v>-1.800000000000001</v>
       </c>
     </row>
@@ -19636,21 +19367,18 @@
         <v>23.34957142857149</v>
       </c>
       <c r="BM90" t="n">
-        <v>0.6333333333333333</v>
+        <v>2.433333333333333</v>
       </c>
       <c r="BN90" t="n">
-        <v>2.433333333333333</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BO90" t="n">
-        <v>2.199999999999999</v>
+        <v>4.809999999999999</v>
       </c>
       <c r="BP90" t="n">
-        <v>4.809999999999999</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BQ90" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="BR90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19848,21 +19576,18 @@
         <v>24.92190930787598</v>
       </c>
       <c r="BM91" t="n">
-        <v>6.116666666666666</v>
+        <v>1.7</v>
       </c>
       <c r="BN91" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="BO91" t="n">
-        <v>2</v>
+        <v>1.599999999999998</v>
       </c>
       <c r="BP91" t="n">
-        <v>1.599999999999998</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BQ91" t="n">
-        <v>-2.109999999999999</v>
-      </c>
-      <c r="BR91" t="n">
         <v>2.890000000000001</v>
       </c>
     </row>
@@ -20060,21 +19785,18 @@
         <v>24.0467933491687</v>
       </c>
       <c r="BM92" t="n">
-        <v>2.033333333333333</v>
+        <v>2.783333333333333</v>
       </c>
       <c r="BN92" t="n">
-        <v>2.783333333333333</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="BO92" t="n">
-        <v>1.399999999999999</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="BP92" t="n">
-        <v>4.199999999999999</v>
+        <v>-2</v>
       </c>
       <c r="BQ92" t="n">
-        <v>-2</v>
-      </c>
-      <c r="BR92" t="n">
         <v>2.199999999999999</v>
       </c>
     </row>
@@ -20272,21 +19994,18 @@
         <v>23.72504761904771</v>
       </c>
       <c r="BM93" t="n">
-        <v>0.8666666666666667</v>
+        <v>1.55</v>
       </c>
       <c r="BN93" t="n">
-        <v>1.55</v>
+        <v>2.210000000000001</v>
       </c>
       <c r="BO93" t="n">
-        <v>2.210000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="BP93" t="n">
-        <v>5.5</v>
+        <v>-16</v>
       </c>
       <c r="BQ93" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR93" t="n">
         <v>0.7899999999999991</v>
       </c>
     </row>
@@ -20484,21 +20203,18 @@
         <v>19.51078384798102</v>
       </c>
       <c r="BM94" t="n">
-        <v>5.583333333333333</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="BN94" t="n">
-        <v>3.266666666666667</v>
+        <v>0</v>
       </c>
       <c r="BO94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP94" t="n">
-        <v>1</v>
+        <v>-16</v>
       </c>
       <c r="BQ94" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR94" t="n">
         <v>-3.609999999999999</v>
       </c>
     </row>
@@ -20696,21 +20412,18 @@
         <v>16.55294258373208</v>
       </c>
       <c r="BM95" t="n">
-        <v>1.616666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN95" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BO95" t="n">
-        <v>1.5</v>
+        <v>15.19</v>
       </c>
       <c r="BP95" t="n">
-        <v>15.19</v>
+        <v>-16</v>
       </c>
       <c r="BQ95" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR95" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -20908,21 +20621,18 @@
         <v>19.68604316546765</v>
       </c>
       <c r="BM96" t="n">
-        <v>1.633333333333333</v>
+        <v>3.4</v>
       </c>
       <c r="BN96" t="n">
-        <v>3.4</v>
+        <v>15.6</v>
       </c>
       <c r="BO96" t="n">
-        <v>15.6</v>
+        <v>15.89</v>
       </c>
       <c r="BP96" t="n">
-        <v>15.89</v>
+        <v>-16</v>
       </c>
       <c r="BQ96" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR96" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -21120,21 +20830,18 @@
         <v>21.53287500000004</v>
       </c>
       <c r="BM97" t="n">
-        <v>1.533333333333333</v>
+        <v>2.766666666666667</v>
       </c>
       <c r="BN97" t="n">
-        <v>2.766666666666667</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="BO97" t="n">
-        <v>2.300000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="BP97" t="n">
-        <v>18.1</v>
+        <v>-16</v>
       </c>
       <c r="BQ97" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR97" t="n">
         <v>-0.6099999999999994</v>
       </c>
     </row>
@@ -21332,21 +21039,18 @@
         <v>23.5128095238096</v>
       </c>
       <c r="BM98" t="n">
-        <v>0.7666666666666667</v>
+        <v>2.6</v>
       </c>
       <c r="BN98" t="n">
-        <v>2.6</v>
+        <v>14.6</v>
       </c>
       <c r="BO98" t="n">
-        <v>14.6</v>
+        <v>4.31</v>
       </c>
       <c r="BP98" t="n">
-        <v>4.31</v>
+        <v>-16</v>
       </c>
       <c r="BQ98" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR98" t="n">
         <v>1.100000000000001</v>
       </c>
     </row>
@@ -21544,21 +21248,18 @@
         <v>21.6414285714286</v>
       </c>
       <c r="BM99" t="n">
-        <v>0.9333333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="BN99" t="n">
-        <v>2.166666666666667</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BO99" t="n">
-        <v>2.100000000000001</v>
+        <v>4.31</v>
       </c>
       <c r="BP99" t="n">
-        <v>4.31</v>
+        <v>-16</v>
       </c>
       <c r="BQ99" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21756,21 +21457,18 @@
         <v>23.9263456090652</v>
       </c>
       <c r="BM100" t="n">
-        <v>0.6166666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="BN100" t="n">
-        <v>1.25</v>
+        <v>16</v>
       </c>
       <c r="BO100" t="n">
-        <v>16</v>
+        <v>20.29</v>
       </c>
       <c r="BP100" t="n">
-        <v>20.29</v>
+        <v>-16</v>
       </c>
       <c r="BQ100" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR100" t="n">
         <v>1.699999999999999</v>
       </c>
     </row>
@@ -21968,21 +21666,18 @@
         <v>28.58892857142868</v>
       </c>
       <c r="BM101" t="n">
-        <v>0.85</v>
+        <v>3.45</v>
       </c>
       <c r="BN101" t="n">
-        <v>3.45</v>
+        <v>2</v>
       </c>
       <c r="BO101" t="n">
-        <v>2</v>
+        <v>6.900000000000002</v>
       </c>
       <c r="BP101" t="n">
-        <v>6.900000000000002</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BQ101" t="n">
-        <v>-2.109999999999999</v>
-      </c>
-      <c r="BR101" t="n">
         <v>5.789999999999999</v>
       </c>
     </row>
@@ -22180,21 +21875,18 @@
         <v>27.2535391923992</v>
       </c>
       <c r="BM102" t="n">
-        <v>1.416666666666667</v>
+        <v>3.616666666666667</v>
       </c>
       <c r="BN102" t="n">
-        <v>3.616666666666667</v>
+        <v>1.09</v>
       </c>
       <c r="BO102" t="n">
-        <v>1.09</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="BP102" t="n">
-        <v>4.390000000000001</v>
+        <v>-1.699999999999999</v>
       </c>
       <c r="BQ102" t="n">
-        <v>-1.699999999999999</v>
-      </c>
-      <c r="BR102" t="n">
         <v>5.100000000000001</v>
       </c>
     </row>
@@ -22392,21 +22084,18 @@
         <v>22.50320388349521</v>
       </c>
       <c r="BM103" t="n">
-        <v>5.833333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="BN103" t="n">
-        <v>5.083333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="BO103" t="n">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="BP103" t="n">
-        <v>1.59</v>
+        <v>-16</v>
       </c>
       <c r="BQ103" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR103" t="n">
         <v>0.6999999999999993</v>
       </c>
     </row>
@@ -22604,21 +22293,18 @@
         <v>16.85178571428573</v>
       </c>
       <c r="BM104" t="n">
-        <v>2.183333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN104" t="n">
-        <v>0</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BO104" t="n">
-        <v>0.4000000000000004</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BP104" t="n">
-        <v>1.289999999999999</v>
+        <v>-1.4</v>
       </c>
       <c r="BQ104" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="BR104" t="n">
         <v>-6.609999999999999</v>
       </c>
     </row>
@@ -22816,21 +22502,18 @@
         <v>20.25783333333337</v>
       </c>
       <c r="BM105" t="n">
-        <v>6.7</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="BN105" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BO105" t="n">
-        <v>0.2999999999999989</v>
+        <v>2</v>
       </c>
       <c r="BP105" t="n">
-        <v>2</v>
+        <v>-1.609999999999999</v>
       </c>
       <c r="BQ105" t="n">
-        <v>-1.609999999999999</v>
-      </c>
-      <c r="BR105" t="n">
         <v>-4.210000000000001</v>
       </c>
     </row>
@@ -23028,21 +22711,18 @@
         <v>26.04677261613704</v>
       </c>
       <c r="BM106" t="n">
-        <v>0.85</v>
+        <v>2.466666666666667</v>
       </c>
       <c r="BN106" t="n">
-        <v>2.466666666666667</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="BO106" t="n">
-        <v>2.899999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="BP106" t="n">
-        <v>6.5</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BQ106" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="BR106" t="n">
         <v>3.789999999999999</v>
       </c>
     </row>
@@ -23240,21 +22920,18 @@
         <v>25.30721153846163</v>
       </c>
       <c r="BM107" t="n">
-        <v>1.416666666666667</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="BN107" t="n">
-        <v>3.366666666666667</v>
+        <v>16.29</v>
       </c>
       <c r="BO107" t="n">
-        <v>16.29</v>
+        <v>21.5</v>
       </c>
       <c r="BP107" t="n">
-        <v>21.5</v>
+        <v>-16</v>
       </c>
       <c r="BQ107" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR107" t="n">
         <v>2.390000000000001</v>
       </c>
     </row>
@@ -23452,21 +23129,18 @@
         <v>25.33236842105271</v>
       </c>
       <c r="BM108" t="n">
-        <v>1.95</v>
+        <v>6.25</v>
       </c>
       <c r="BN108" t="n">
-        <v>6.25</v>
+        <v>16.2</v>
       </c>
       <c r="BO108" t="n">
-        <v>16.2</v>
+        <v>21.5</v>
       </c>
       <c r="BP108" t="n">
-        <v>21.5</v>
+        <v>-16</v>
       </c>
       <c r="BQ108" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR108" t="n">
         <v>2.199999999999999</v>
       </c>
     </row>
@@ -23664,21 +23338,18 @@
         <v>24.81083979328179</v>
       </c>
       <c r="BM109" t="n">
-        <v>3.433333333333333</v>
+        <v>10.9</v>
       </c>
       <c r="BN109" t="n">
-        <v>10.9</v>
+        <v>21.6</v>
       </c>
       <c r="BO109" t="n">
-        <v>21.6</v>
+        <v>22.2</v>
       </c>
       <c r="BP109" t="n">
-        <v>22.2</v>
+        <v>-16</v>
       </c>
       <c r="BQ109" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR109" t="n">
         <v>2.199999999999999</v>
       </c>
     </row>
@@ -23876,21 +23547,18 @@
         <v>26.50768674698805</v>
       </c>
       <c r="BM110" t="n">
-        <v>1.2</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="BN110" t="n">
-        <v>3.083333333333333</v>
+        <v>3.290000000000001</v>
       </c>
       <c r="BO110" t="n">
-        <v>3.290000000000001</v>
+        <v>5.289999999999999</v>
       </c>
       <c r="BP110" t="n">
-        <v>5.289999999999999</v>
+        <v>-2.9</v>
       </c>
       <c r="BQ110" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="BR110" t="n">
         <v>3.699999999999999</v>
       </c>
     </row>
@@ -24088,21 +23756,18 @@
         <v>28.34603325415688</v>
       </c>
       <c r="BM111" t="n">
-        <v>3.9</v>
+        <v>9.516666666666667</v>
       </c>
       <c r="BN111" t="n">
-        <v>9.516666666666667</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BO111" t="n">
-        <v>2.109999999999999</v>
+        <v>5</v>
       </c>
       <c r="BP111" t="n">
-        <v>5</v>
+        <v>-1.609999999999999</v>
       </c>
       <c r="BQ111" t="n">
-        <v>-1.609999999999999</v>
-      </c>
-      <c r="BR111" t="n">
         <v>5.100000000000001</v>
       </c>
     </row>
@@ -24300,21 +23965,18 @@
         <v>27.18179856115118</v>
       </c>
       <c r="BM112" t="n">
-        <v>3.616666666666667</v>
+        <v>5.466666666666667</v>
       </c>
       <c r="BN112" t="n">
-        <v>5.466666666666667</v>
+        <v>2.399999999999999</v>
       </c>
       <c r="BO112" t="n">
-        <v>2.399999999999999</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BP112" t="n">
-        <v>2.289999999999999</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BQ112" t="n">
-        <v>-0.6099999999999994</v>
-      </c>
-      <c r="BR112" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -24512,21 +24174,18 @@
         <v>22.30378571428576</v>
       </c>
       <c r="BM113" t="n">
-        <v>9.883333333333333</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="BN113" t="n">
-        <v>2.583333333333333</v>
+        <v>0.6099999999999994</v>
       </c>
       <c r="BO113" t="n">
-        <v>0.6099999999999994</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="BP113" t="n">
-        <v>1.300000000000001</v>
+        <v>-0.8100000000000005</v>
       </c>
       <c r="BQ113" t="n">
-        <v>-0.8100000000000005</v>
-      </c>
-      <c r="BR113" t="n">
         <v>4.390000000000001</v>
       </c>
     </row>
@@ -24724,21 +24383,18 @@
         <v>21.32147971360384</v>
       </c>
       <c r="BM114" t="n">
-        <v>3.15</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="BN114" t="n">
-        <v>5.416666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="BO114" t="n">
-        <v>3.5</v>
+        <v>3.300000000000001</v>
       </c>
       <c r="BP114" t="n">
-        <v>3.300000000000001</v>
+        <v>-3.81</v>
       </c>
       <c r="BQ114" t="n">
-        <v>-3.81</v>
-      </c>
-      <c r="BR114" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -24936,21 +24592,18 @@
         <v>24.10535885167472</v>
       </c>
       <c r="BM115" t="n">
-        <v>1.033333333333333</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="BN115" t="n">
-        <v>1.066666666666667</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="BO115" t="n">
-        <v>3.800000000000001</v>
+        <v>4.109999999999999</v>
       </c>
       <c r="BP115" t="n">
-        <v>4.109999999999999</v>
+        <v>-5.5</v>
       </c>
       <c r="BQ115" t="n">
-        <v>-5.5</v>
-      </c>
-      <c r="BR115" t="n">
         <v>1.199999999999999</v>
       </c>
     </row>
@@ -25148,21 +24801,18 @@
         <v>25.89549878345509</v>
       </c>
       <c r="BM116" t="n">
-        <v>5.333333333333333</v>
+        <v>5.716666666666667</v>
       </c>
       <c r="BN116" t="n">
-        <v>5.716666666666667</v>
+        <v>5</v>
       </c>
       <c r="BO116" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP116" t="n">
-        <v>4</v>
+        <v>-6.31</v>
       </c>
       <c r="BQ116" t="n">
-        <v>-6.31</v>
-      </c>
-      <c r="BR116" t="n">
         <v>3.390000000000001</v>
       </c>
     </row>
@@ -25360,21 +25010,18 @@
         <v>19.78183770883058</v>
       </c>
       <c r="BM117" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="BN117" t="n">
-        <v>0</v>
+        <v>0.1900000000000013</v>
       </c>
       <c r="BO117" t="n">
-        <v>0.1900000000000013</v>
+        <v>1</v>
       </c>
       <c r="BP117" t="n">
-        <v>1</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BQ117" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="BR117" t="n">
         <v>-5.210000000000001</v>
       </c>
     </row>
@@ -25572,21 +25219,18 @@
         <v>23.85954545454554</v>
       </c>
       <c r="BM118" t="n">
-        <v>3.733333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="BN118" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.2100000000000009</v>
       </c>
       <c r="BO118" t="n">
-        <v>0.2100000000000009</v>
+        <v>5.810000000000002</v>
       </c>
       <c r="BP118" t="n">
-        <v>5.810000000000002</v>
+        <v>-1.81</v>
       </c>
       <c r="BQ118" t="n">
-        <v>-1.81</v>
-      </c>
-      <c r="BR118" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -25784,21 +25428,18 @@
         <v>25.32926582278488</v>
       </c>
       <c r="BM119" t="n">
-        <v>1.816666666666667</v>
+        <v>8.6</v>
       </c>
       <c r="BN119" t="n">
-        <v>8.6</v>
+        <v>2.19</v>
       </c>
       <c r="BO119" t="n">
-        <v>2.19</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="BP119" t="n">
-        <v>5.199999999999999</v>
+        <v>-16</v>
       </c>
       <c r="BQ119" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR119" t="n">
         <v>3</v>
       </c>
     </row>
@@ -25996,21 +25637,18 @@
         <v>26.53458536585376</v>
       </c>
       <c r="BM120" t="n">
-        <v>1.416666666666667</v>
+        <v>9.233333333333333</v>
       </c>
       <c r="BN120" t="n">
-        <v>9.233333333333333</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="BO120" t="n">
-        <v>3.800000000000001</v>
+        <v>5.810000000000002</v>
       </c>
       <c r="BP120" t="n">
-        <v>5.810000000000002</v>
+        <v>-16</v>
       </c>
       <c r="BQ120" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR120" t="n">
         <v>4.199999999999999</v>
       </c>
     </row>
@@ -26208,21 +25846,18 @@
         <v>25.30711217183781</v>
       </c>
       <c r="BM121" t="n">
-        <v>2</v>
+        <v>7.966666666666667</v>
       </c>
       <c r="BN121" t="n">
-        <v>7.966666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="BO121" t="n">
-        <v>3.5</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="BP121" t="n">
-        <v>6.600000000000001</v>
+        <v>-5</v>
       </c>
       <c r="BQ121" t="n">
-        <v>-5</v>
-      </c>
-      <c r="BR121" t="n">
         <v>1.390000000000001</v>
       </c>
     </row>
@@ -26420,21 +26055,18 @@
         <v>22.54421348314609</v>
       </c>
       <c r="BM122" t="n">
-        <v>1.616666666666667</v>
+        <v>2.3</v>
       </c>
       <c r="BN122" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="BO122" t="n">
-        <v>1.5</v>
+        <v>20.2</v>
       </c>
       <c r="BP122" t="n">
-        <v>20.2</v>
+        <v>-16</v>
       </c>
       <c r="BQ122" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR122" t="n">
         <v>1.390000000000001</v>
       </c>
     </row>
@@ -26632,21 +26264,18 @@
         <v>19.65590909090914</v>
       </c>
       <c r="BM123" t="n">
-        <v>5.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN123" t="n">
-        <v>0</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BO123" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BP123" t="n">
-        <v>0.3999999999999986</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BQ123" t="n">
-        <v>-0.6099999999999994</v>
-      </c>
-      <c r="BR123" t="n">
         <v>-1.800000000000001</v>
       </c>
     </row>
@@ -26844,21 +26473,18 @@
         <v>13.4661639344262</v>
       </c>
       <c r="BM124" t="n">
-        <v>1.533333333333333</v>
+        <v>1.383333333333333</v>
       </c>
       <c r="BN124" t="n">
-        <v>1.383333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="BO124" t="n">
-        <v>1.4</v>
+        <v>21.39</v>
       </c>
       <c r="BP124" t="n">
-        <v>21.39</v>
+        <v>-16</v>
       </c>
       <c r="BQ124" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR124" t="n">
         <v>1.789999999999999</v>
       </c>
     </row>
@@ -27056,21 +26682,18 @@
         <v>21.10969230769233</v>
       </c>
       <c r="BM125" t="n">
-        <v>0.7833333333333333</v>
+        <v>3.2</v>
       </c>
       <c r="BN125" t="n">
-        <v>3.2</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BO125" t="n">
-        <v>1.100000000000001</v>
+        <v>25.89</v>
       </c>
       <c r="BP125" t="n">
-        <v>25.89</v>
+        <v>-16</v>
       </c>
       <c r="BQ125" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR125" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -27268,21 +26891,18 @@
         <v>0.2469544364508393</v>
       </c>
       <c r="BM126" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="BN126" t="n">
-        <v>0.08333333333333333</v>
+        <v>17</v>
       </c>
       <c r="BO126" t="n">
-        <v>17</v>
+        <v>25.79</v>
       </c>
       <c r="BP126" t="n">
-        <v>25.79</v>
+        <v>-16</v>
       </c>
       <c r="BQ126" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR126" t="n">
         <v>5</v>
       </c>
     </row>
@@ -27483,18 +27103,15 @@
         <v>0</v>
       </c>
       <c r="BN127" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BO127" t="n">
-        <v>24</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="BP127" t="n">
-        <v>0.8000000000000007</v>
+        <v>-16</v>
       </c>
       <c r="BQ127" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR127" t="n">
         <v>2.100000000000001</v>
       </c>
     </row>
@@ -27695,18 +27312,15 @@
         <v>0</v>
       </c>
       <c r="BN128" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BO128" t="n">
-        <v>0.5</v>
+        <v>1.189999999999998</v>
       </c>
       <c r="BP128" t="n">
-        <v>1.189999999999998</v>
+        <v>6.390000000000001</v>
       </c>
       <c r="BQ128" t="n">
-        <v>6.390000000000001</v>
-      </c>
-      <c r="BR128" t="n">
         <v>5.890000000000001</v>
       </c>
     </row>
@@ -27904,21 +27518,18 @@
         <v>22.101028708134</v>
       </c>
       <c r="BM129" t="n">
-        <v>5.15</v>
+        <v>0</v>
       </c>
       <c r="BN129" t="n">
-        <v>0</v>
+        <v>0.3100000000000023</v>
       </c>
       <c r="BO129" t="n">
-        <v>0.3100000000000023</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BP129" t="n">
-        <v>2.289999999999999</v>
+        <v>2</v>
       </c>
       <c r="BQ129" t="n">
-        <v>2</v>
-      </c>
-      <c r="BR129" t="n">
         <v>-1.399999999999999</v>
       </c>
     </row>
@@ -28116,21 +27727,18 @@
         <v>25.64727047146411</v>
       </c>
       <c r="BM130" t="n">
-        <v>3.783333333333333</v>
+        <v>5.95</v>
       </c>
       <c r="BN130" t="n">
-        <v>5.95</v>
+        <v>3.210000000000001</v>
       </c>
       <c r="BO130" t="n">
-        <v>3.210000000000001</v>
+        <v>5.109999999999999</v>
       </c>
       <c r="BP130" t="n">
-        <v>5.109999999999999</v>
+        <v>-16</v>
       </c>
       <c r="BQ130" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR130" t="n">
         <v>2.100000000000001</v>
       </c>
     </row>
@@ -28328,21 +27936,18 @@
         <v>23.16539408867</v>
       </c>
       <c r="BM131" t="n">
-        <v>1.5</v>
+        <v>5.9</v>
       </c>
       <c r="BN131" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="BO131" t="n">
-        <v>4.9</v>
+        <v>4.810000000000002</v>
       </c>
       <c r="BP131" t="n">
-        <v>4.810000000000002</v>
+        <v>-16</v>
       </c>
       <c r="BQ131" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR131" t="n">
         <v>3</v>
       </c>
     </row>
@@ -28540,21 +28145,18 @@
         <v>27.36198090692137</v>
       </c>
       <c r="BM132" t="n">
-        <v>1.983333333333333</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BN132" t="n">
-        <v>9.199999999999999</v>
+        <v>4.890000000000001</v>
       </c>
       <c r="BO132" t="n">
-        <v>4.890000000000001</v>
+        <v>3.690000000000001</v>
       </c>
       <c r="BP132" t="n">
-        <v>3.690000000000001</v>
+        <v>-5</v>
       </c>
       <c r="BQ132" t="n">
-        <v>-5</v>
-      </c>
-      <c r="BR132" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -28752,21 +28354,18 @@
         <v>23.78987684729073</v>
       </c>
       <c r="BM133" t="n">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="BN133" t="n">
-        <v>3.2</v>
+        <v>3.390000000000001</v>
       </c>
       <c r="BO133" t="n">
-        <v>3.390000000000001</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BP133" t="n">
-        <v>2.289999999999999</v>
+        <v>-16</v>
       </c>
       <c r="BQ133" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BR133" t="n">
         <v>3.890000000000001</v>
       </c>
     </row>
@@ -28964,21 +28563,18 @@
         <v>27.86983333333343</v>
       </c>
       <c r="BM134" t="n">
-        <v>5.966666666666667</v>
+        <v>4.633333333333334</v>
       </c>
       <c r="BN134" t="n">
-        <v>4.633333333333334</v>
+        <v>1.190000000000001</v>
       </c>
       <c r="BO134" t="n">
-        <v>1.190000000000001</v>
+        <v>6.199999999999999</v>
       </c>
       <c r="BP134" t="n">
-        <v>6.199999999999999</v>
+        <v>-3.31</v>
       </c>
       <c r="BQ134" t="n">
-        <v>-3.31</v>
-      </c>
-      <c r="BR134" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -29176,21 +28772,18 @@
         <v>27.31248780487817</v>
       </c>
       <c r="BM135" t="n">
-        <v>0.7166666666666667</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="BN135" t="n">
-        <v>2.133333333333333</v>
+        <v>3.799999999999999</v>
       </c>
       <c r="BO135" t="n">
-        <v>3.799999999999999</v>
+        <v>7.189999999999998</v>
       </c>
       <c r="BP135" t="n">
-        <v>7.189999999999998</v>
+        <v>-5.699999999999999</v>
       </c>
       <c r="BQ135" t="n">
-        <v>-5.699999999999999</v>
-      </c>
-      <c r="BR135" t="n">
         <v>3.699999999999999</v>
       </c>
     </row>
@@ -29388,21 +28981,18 @@
         <v>27.46776190476201</v>
       </c>
       <c r="BM136" t="n">
-        <v>1.75</v>
+        <v>6.65</v>
       </c>
       <c r="BN136" t="n">
-        <v>6.65</v>
+        <v>5.200000000000001</v>
       </c>
       <c r="BO136" t="n">
-        <v>5.200000000000001</v>
+        <v>5.109999999999999</v>
       </c>
       <c r="BP136" t="n">
-        <v>5.109999999999999</v>
+        <v>-5.81</v>
       </c>
       <c r="BQ136" t="n">
-        <v>-5.81</v>
-      </c>
-      <c r="BR136" t="n">
         <v>4.600000000000001</v>
       </c>
     </row>
@@ -29600,21 +29190,18 @@
         <v>30.14590361445793</v>
       </c>
       <c r="BM137" t="n">
-        <v>3.366666666666667</v>
+        <v>5.3</v>
       </c>
       <c r="BN137" t="n">
-        <v>5.3</v>
+        <v>4.910000000000002</v>
       </c>
       <c r="BO137" t="n">
-        <v>4.910000000000002</v>
+        <v>6.91</v>
       </c>
       <c r="BP137" t="n">
-        <v>6.91</v>
+        <v>-3.81</v>
       </c>
       <c r="BQ137" t="n">
-        <v>-3.81</v>
-      </c>
-      <c r="BR137" t="n">
         <v>6.289999999999999</v>
       </c>
     </row>
